--- a/Sem2_Jul2014/2508_POIS/assignments/planning/GraphCharts .xlsx
+++ b/Sem2_Jul2014/2508_POIS/assignments/planning/GraphCharts .xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="134">
   <si>
     <t>probxx</t>
   </si>
@@ -1053,20 +1053,494 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plan Time in Seconds'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> edomain1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Plan Time in Seconds'!$A$3:$B$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>               0.04 seconds total time</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>               0.07 seconds total time</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>               0.12 seconds total time</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>               0.22 seconds searching, evaluating 2239 states, to a max depth of 2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.36</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.49</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>               0.66 seconds total time</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>prob12.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>prob25.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>prob37.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>prob50.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>prob62.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>prob75.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>prob87.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>prob100.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>prob112.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>prob125.pddl</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plan Time in Seconds'!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plan Time in Seconds'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>edomain2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Plan Time in Seconds'!$A$3:$B$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>               0.04 seconds total time</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>               0.07 seconds total time</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>               0.12 seconds total time</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>               0.22 seconds searching, evaluating 2239 states, to a max depth of 2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.36</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.49</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>               0.66 seconds total time</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>prob12.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>prob25.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>prob37.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>prob50.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>prob62.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>prob75.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>prob87.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>prob100.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>prob112.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>prob125.pddl</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plan Time in Seconds'!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plan Time in Seconds'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>edomain3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Plan Time in Seconds'!$A$3:$B$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>               0.04 seconds total time</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>               0.07 seconds total time</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>               0.12 seconds total time</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>               0.22 seconds searching, evaluating 2239 states, to a max depth of 2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.36</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.49</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>               0.66 seconds total time</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>prob12.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>prob25.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>prob37.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>prob50.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>prob62.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>prob75.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>prob87.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>prob100.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>prob112.pddl</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>prob125.pddl</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plan Time in Seconds'!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2113412312"/>
+        <c:axId val="2113415288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2113412312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2113415288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2113415288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2113412312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1080,6 +1554,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1412,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W94"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:W93"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="AA13" workbookViewId="0">
+      <selection activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1627,9 +2133,6 @@
       </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
       <c r="I15" t="s">
         <v>5</v>
       </c>

--- a/Sem2_Jul2014/2508_POIS/assignments/planning/GraphCharts .xlsx
+++ b/Sem2_Jul2014/2508_POIS/assignments/planning/GraphCharts .xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan Time in Seconds" sheetId="1" r:id="rId1"/>
     <sheet name="Plan Length in Action Count" sheetId="2" r:id="rId2"/>
+    <sheet name="Collected Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="135">
   <si>
     <t>probxx</t>
   </si>
@@ -418,10 +419,13 @@
     <t>edomain3.pddl</t>
   </si>
   <si>
-    <t>#of actions/macro</t>
-  </si>
-  <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>edomain1.pddl</t>
+  </si>
+  <si>
+    <t>#of actions</t>
   </si>
 </sst>
 </file>
@@ -482,8 +486,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -531,7 +561,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -552,6 +582,19 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -572,6 +615,19 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -618,7 +674,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Plan Time in Seconds'!$A$3:$B$12</c:f>
+              <c:f>'Plan Time in Seconds'!$A$3:$F$12</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="10"/>
                 <c:lvl>
@@ -629,19 +685,115 @@
                     <c:v>0.00</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>0.02</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.11</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.16</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.01</c:v>
+                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>               0.04 seconds total time</c:v>
+                    <c:v>0.01</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>               0.07 seconds total time</c:v>
+                    <c:v>0.03</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>               0.12 seconds total time</c:v>
+                    <c:v>0.04</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>               0.22 seconds searching, evaluating 2239 states, to a max depth of 2</c:v>
+                    <c:v>0.07</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.25</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.21</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.41</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.86</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.24</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.56</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.67</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.07</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.12</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.22</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.36</c:v>
@@ -650,7 +802,7 @@
                     <c:v>0.49</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>               0.66 seconds total time</c:v>
+                    <c:v>0.66</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -748,7 +900,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Plan Time in Seconds'!$A$3:$B$12</c:f>
+              <c:f>'Plan Time in Seconds'!$A$3:$F$12</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="10"/>
                 <c:lvl>
@@ -759,19 +911,115 @@
                     <c:v>0.00</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>0.02</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.11</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.16</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.01</c:v>
+                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>               0.04 seconds total time</c:v>
+                    <c:v>0.01</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>               0.07 seconds total time</c:v>
+                    <c:v>0.03</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>               0.12 seconds total time</c:v>
+                    <c:v>0.04</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>               0.22 seconds searching, evaluating 2239 states, to a max depth of 2</c:v>
+                    <c:v>0.07</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.25</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.21</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.41</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.86</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.24</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.56</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.67</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.07</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.12</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.22</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.36</c:v>
@@ -780,7 +1028,7 @@
                     <c:v>0.49</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>               0.66 seconds total time</c:v>
+                    <c:v>0.66</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -878,7 +1126,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Plan Time in Seconds'!$A$3:$B$12</c:f>
+              <c:f>'Plan Time in Seconds'!$A$3:$F$12</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="10"/>
                 <c:lvl>
@@ -889,19 +1137,115 @@
                     <c:v>0.00</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>0.02</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.03</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.11</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.16</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.01</c:v>
+                  </c:pt>
                   <c:pt idx="3">
-                    <c:v>               0.04 seconds total time</c:v>
+                    <c:v>0.01</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>               0.07 seconds total time</c:v>
+                    <c:v>0.03</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>               0.12 seconds total time</c:v>
+                    <c:v>0.04</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>               0.22 seconds searching, evaluating 2239 states, to a max depth of 2</c:v>
+                    <c:v>0.07</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.11</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.15</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.25</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.09</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.21</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.41</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.86</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.24</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.56</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.67</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.07</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.12</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.22</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>0.36</c:v>
@@ -910,7 +1254,7 @@
                     <c:v>0.49</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>               0.66 seconds total time</c:v>
+                    <c:v>0.66</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -999,11 +1343,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2111053016"/>
-        <c:axId val="2111039304"/>
+        <c:axId val="2117158072"/>
+        <c:axId val="2117155080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2111053016"/>
+        <c:axId val="2117158072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111039304"/>
+        <c:crossAx val="2117155080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1020,7 +1364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111039304"/>
+        <c:axId val="2117155080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111053016"/>
+        <c:crossAx val="2117158072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1078,11 +1422,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Plan Time in Seconds'!$C$2</c:f>
+              <c:f>'Plan Time in Seconds'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> edomain1</c:v>
+                  <c:v>odomain</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1090,81 +1434,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Plan Time in Seconds'!$A$3:$B$12</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0.00</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.00</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.02</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>               0.04 seconds total time</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>               0.07 seconds total time</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>               0.12 seconds total time</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>               0.22 seconds searching, evaluating 2239 states, to a max depth of 2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.36</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.49</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>               0.66 seconds total time</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>prob12.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>prob25.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>prob37.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>prob50.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>prob62.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>prob75.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>prob87.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>prob100.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>prob112.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>prob125.pddl</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Plan Time in Seconds'!$C$3:$C$12</c:f>
+              <c:f>'Plan Time in Seconds'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1172,31 +1444,31 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86</c:v>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.24</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.56</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.67</c:v>
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,11 +1480,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Plan Time in Seconds'!$D$2</c:f>
+              <c:f>'Plan Time in Seconds'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>edomain2</c:v>
+                  <c:v> edomain1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1220,81 +1492,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Plan Time in Seconds'!$A$3:$B$12</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0.00</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.00</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.02</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>               0.04 seconds total time</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>               0.07 seconds total time</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>               0.12 seconds total time</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>               0.22 seconds searching, evaluating 2239 states, to a max depth of 2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.36</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.49</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>               0.66 seconds total time</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>prob12.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>prob25.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>prob37.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>prob50.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>prob62.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>prob75.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>prob87.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>prob100.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>prob112.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>prob125.pddl</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Plan Time in Seconds'!$D$3:$D$12</c:f>
+              <c:f>'Plan Time in Seconds'!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1302,31 +1502,31 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.07</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15</c:v>
+                  <c:v>2.56</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25</c:v>
+                  <c:v>3.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1338,11 +1538,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Plan Time in Seconds'!$E$2</c:f>
+              <c:f>'Plan Time in Seconds'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>edomain3</c:v>
+                  <c:v>edomain2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1350,78 +1550,64 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Plan Time in Seconds'!$A$3:$B$12</c:f>
-              <c:multiLvlStrCache>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plan Time in Seconds'!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0.00</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.00</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.02</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>               0.04 seconds total time</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>               0.07 seconds total time</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>               0.12 seconds total time</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>               0.22 seconds searching, evaluating 2239 states, to a max depth of 2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.36</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.49</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>               0.66 seconds total time</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>prob12.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>prob25.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>prob37.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>prob50.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>prob62.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>prob75.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>prob87.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>prob100.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>prob112.pddl</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>prob125.pddl</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plan Time in Seconds'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>edomain3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>'Plan Time in Seconds'!$E$3:$E$12</c:f>
@@ -1473,11 +1659,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2113412312"/>
-        <c:axId val="2113415288"/>
+        <c:axId val="2131179224"/>
+        <c:axId val="2131180744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2113412312"/>
+        <c:axId val="2131179224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,7 +1672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113415288"/>
+        <c:crossAx val="2131180744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1494,7 +1680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113415288"/>
+        <c:axId val="2131180744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1691,475 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113412312"/>
+        <c:crossAx val="2131179224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plan Length in Action Count'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>odomain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Plan Length in Action Count'!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>prob12.pddl</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>prob25.pddl</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>prob37.pddl</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>prob50.pddl</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prob62.pddl</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>prob75.pddl</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>prob87.pddl</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>prob100.pddl</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>prob112.pddl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>prob125.pddl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plan Length in Action Count'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>261.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>281.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>315.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plan Length in Action Count'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> edomain1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Plan Length in Action Count'!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>prob12.pddl</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>prob25.pddl</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>prob37.pddl</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>prob50.pddl</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prob62.pddl</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>prob75.pddl</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>prob87.pddl</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>prob100.pddl</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>prob112.pddl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>prob125.pddl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plan Length in Action Count'!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>352.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>348.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>484.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>452.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plan Length in Action Count'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>edomain2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Plan Length in Action Count'!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>prob12.pddl</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>prob25.pddl</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>prob37.pddl</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>prob50.pddl</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prob62.pddl</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>prob75.pddl</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>prob87.pddl</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>prob100.pddl</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>prob112.pddl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>prob125.pddl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plan Length in Action Count'!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>126.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Plan Length in Action Count'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>edomain3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Plan Length in Action Count'!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>prob12.pddl</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>prob25.pddl</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>prob37.pddl</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>prob50.pddl</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prob62.pddl</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>prob75.pddl</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>prob87.pddl</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>prob100.pddl</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>prob112.pddl</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>prob125.pddl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Plan Length in Action Count'!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>249.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2070698696"/>
+        <c:axId val="2126155240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2070698696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126155240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2126155240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2070698696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1529,36 +2183,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
@@ -1585,7 +2209,72 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1916,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W94"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="AA13" workbookViewId="0">
-      <selection activeCell="AF18" sqref="AF18"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2001,8 +2690,8 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>82</v>
+      <c r="B6">
+        <v>0.04</v>
       </c>
       <c r="C6" s="2">
         <v>0.09</v>
@@ -2018,8 +2707,8 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>86</v>
+      <c r="B7">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C7" s="2">
         <v>0.21</v>
@@ -2035,8 +2724,8 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>90</v>
+      <c r="B8">
+        <v>0.12</v>
       </c>
       <c r="C8" s="2">
         <v>0.41</v>
@@ -2052,8 +2741,8 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>93</v>
+      <c r="B9">
+        <v>0.22</v>
       </c>
       <c r="C9" s="2">
         <v>0.86</v>
@@ -2103,8 +2792,8 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>105</v>
+      <c r="B12">
+        <v>0.66</v>
       </c>
       <c r="C12" s="2">
         <v>3.67</v>
@@ -2119,1131 +2808,6 @@
     <row r="13" spans="1:23">
       <c r="W13" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="I14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" t="s">
-        <v>120</v>
-      </c>
-      <c r="W14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="I15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" t="s">
-        <v>5</v>
-      </c>
-      <c r="W15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" t="s">
-        <v>71</v>
-      </c>
-      <c r="P16" t="s">
-        <v>17</v>
-      </c>
-      <c r="W16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>72</v>
-      </c>
-      <c r="P17" t="s">
-        <v>18</v>
-      </c>
-      <c r="W17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" t="s">
-        <v>19</v>
-      </c>
-      <c r="W18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="P20" t="s">
-        <v>21</v>
-      </c>
-      <c r="W20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" t="s">
-        <v>73</v>
-      </c>
-      <c r="P21" t="s">
-        <v>106</v>
-      </c>
-      <c r="W21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" t="s">
-        <v>23</v>
-      </c>
-      <c r="W22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" t="s">
-        <v>6</v>
-      </c>
-      <c r="P23" t="s">
-        <v>6</v>
-      </c>
-      <c r="W23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" t="s">
-        <v>74</v>
-      </c>
-      <c r="P24" t="s">
-        <v>24</v>
-      </c>
-      <c r="W24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" t="s">
-        <v>75</v>
-      </c>
-      <c r="P25" t="s">
-        <v>25</v>
-      </c>
-      <c r="W25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" t="s">
-        <v>26</v>
-      </c>
-      <c r="P26" t="s">
-        <v>26</v>
-      </c>
-      <c r="W26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" t="s">
-        <v>20</v>
-      </c>
-      <c r="W27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" t="s">
-        <v>21</v>
-      </c>
-      <c r="P28" t="s">
-        <v>21</v>
-      </c>
-      <c r="W28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" t="s">
-        <v>76</v>
-      </c>
-      <c r="P29" t="s">
-        <v>107</v>
-      </c>
-      <c r="W29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" t="s">
-        <v>23</v>
-      </c>
-      <c r="P30" t="s">
-        <v>23</v>
-      </c>
-      <c r="W30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" t="s">
-        <v>7</v>
-      </c>
-      <c r="P31" t="s">
-        <v>7</v>
-      </c>
-      <c r="W31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" t="s">
-        <v>77</v>
-      </c>
-      <c r="P32" t="s">
-        <v>29</v>
-      </c>
-      <c r="W32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" t="s">
-        <v>78</v>
-      </c>
-      <c r="P33" t="s">
-        <v>30</v>
-      </c>
-      <c r="W33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" t="s">
-        <v>31</v>
-      </c>
-      <c r="P34" t="s">
-        <v>31</v>
-      </c>
-      <c r="W34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" t="s">
-        <v>20</v>
-      </c>
-      <c r="W35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
-      <c r="A36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" t="s">
-        <v>79</v>
-      </c>
-      <c r="P37" t="s">
-        <v>108</v>
-      </c>
-      <c r="W37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" t="s">
-        <v>33</v>
-      </c>
-      <c r="P38" t="s">
-        <v>28</v>
-      </c>
-      <c r="W38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" t="s">
-        <v>8</v>
-      </c>
-      <c r="P39" t="s">
-        <v>8</v>
-      </c>
-      <c r="W39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
-      <c r="A40" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40" t="s">
-        <v>24</v>
-      </c>
-      <c r="P40" t="s">
-        <v>34</v>
-      </c>
-      <c r="W40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
-      <c r="A41" t="s">
-        <v>35</v>
-      </c>
-      <c r="I41" t="s">
-        <v>80</v>
-      </c>
-      <c r="P41" t="s">
-        <v>35</v>
-      </c>
-      <c r="W41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="I42" t="s">
-        <v>36</v>
-      </c>
-      <c r="P42" t="s">
-        <v>36</v>
-      </c>
-      <c r="W42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
-      <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" t="s">
-        <v>20</v>
-      </c>
-      <c r="P43" t="s">
-        <v>20</v>
-      </c>
-      <c r="W43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
-      <c r="A44" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" t="s">
-        <v>21</v>
-      </c>
-      <c r="P44" t="s">
-        <v>21</v>
-      </c>
-      <c r="W44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
-      <c r="I45" t="s">
-        <v>81</v>
-      </c>
-      <c r="P45" t="s">
-        <v>109</v>
-      </c>
-      <c r="W45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
-      <c r="A46" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" t="s">
-        <v>82</v>
-      </c>
-      <c r="P46" t="s">
-        <v>28</v>
-      </c>
-      <c r="W46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
-      <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" t="s">
-        <v>9</v>
-      </c>
-      <c r="P47" t="s">
-        <v>9</v>
-      </c>
-      <c r="W47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
-      <c r="A48" t="s">
-        <v>39</v>
-      </c>
-      <c r="I48" t="s">
-        <v>83</v>
-      </c>
-      <c r="P48" t="s">
-        <v>39</v>
-      </c>
-      <c r="W48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
-      <c r="A49" t="s">
-        <v>40</v>
-      </c>
-      <c r="I49" t="s">
-        <v>84</v>
-      </c>
-      <c r="P49" t="s">
-        <v>40</v>
-      </c>
-      <c r="W49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
-      <c r="A50" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" t="s">
-        <v>41</v>
-      </c>
-      <c r="P50" t="s">
-        <v>41</v>
-      </c>
-      <c r="W50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
-      <c r="A51" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" t="s">
-        <v>20</v>
-      </c>
-      <c r="P51" t="s">
-        <v>20</v>
-      </c>
-      <c r="W51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" t="s">
-        <v>21</v>
-      </c>
-      <c r="P52" t="s">
-        <v>21</v>
-      </c>
-      <c r="W52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
-      <c r="A53" t="s">
-        <v>42</v>
-      </c>
-      <c r="I53" t="s">
-        <v>85</v>
-      </c>
-      <c r="P53" t="s">
-        <v>110</v>
-      </c>
-      <c r="W53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
-      <c r="A54" t="s">
-        <v>43</v>
-      </c>
-      <c r="I54" t="s">
-        <v>86</v>
-      </c>
-      <c r="P54" t="s">
-        <v>111</v>
-      </c>
-      <c r="W54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" t="s">
-        <v>10</v>
-      </c>
-      <c r="P55" t="s">
-        <v>10</v>
-      </c>
-      <c r="W55" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
-      <c r="A56" t="s">
-        <v>44</v>
-      </c>
-      <c r="I56" t="s">
-        <v>87</v>
-      </c>
-      <c r="P56" t="s">
-        <v>44</v>
-      </c>
-      <c r="W56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
-      <c r="A57" t="s">
-        <v>45</v>
-      </c>
-      <c r="I57" t="s">
-        <v>88</v>
-      </c>
-      <c r="P57" t="s">
-        <v>45</v>
-      </c>
-      <c r="W57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
-      <c r="A58" t="s">
-        <v>46</v>
-      </c>
-      <c r="I58" t="s">
-        <v>46</v>
-      </c>
-      <c r="P58" t="s">
-        <v>46</v>
-      </c>
-      <c r="W58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
-      <c r="A59" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" t="s">
-        <v>20</v>
-      </c>
-      <c r="P59" t="s">
-        <v>20</v>
-      </c>
-      <c r="W59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23">
-      <c r="A60" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" t="s">
-        <v>21</v>
-      </c>
-      <c r="P60" t="s">
-        <v>21</v>
-      </c>
-      <c r="W60" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
-      <c r="A61" t="s">
-        <v>47</v>
-      </c>
-      <c r="I61" t="s">
-        <v>89</v>
-      </c>
-      <c r="P61" t="s">
-        <v>112</v>
-      </c>
-      <c r="W61" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
-      <c r="A62" t="s">
-        <v>48</v>
-      </c>
-      <c r="I62" t="s">
-        <v>90</v>
-      </c>
-      <c r="P62" t="s">
-        <v>82</v>
-      </c>
-      <c r="W62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
-      <c r="A63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" t="s">
-        <v>11</v>
-      </c>
-      <c r="P63" t="s">
-        <v>11</v>
-      </c>
-      <c r="W63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
-      <c r="A64" t="s">
-        <v>49</v>
-      </c>
-      <c r="I64" t="s">
-        <v>91</v>
-      </c>
-      <c r="P64" t="s">
-        <v>49</v>
-      </c>
-      <c r="W64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
-      <c r="A65" t="s">
-        <v>50</v>
-      </c>
-      <c r="I65" t="s">
-        <v>92</v>
-      </c>
-      <c r="P65" t="s">
-        <v>50</v>
-      </c>
-      <c r="W65" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
-      <c r="A66" t="s">
-        <v>51</v>
-      </c>
-      <c r="I66" t="s">
-        <v>51</v>
-      </c>
-      <c r="P66" t="s">
-        <v>51</v>
-      </c>
-      <c r="W66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
-      <c r="A67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" t="s">
-        <v>20</v>
-      </c>
-      <c r="P67" t="s">
-        <v>20</v>
-      </c>
-      <c r="W67" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
-      <c r="A68" t="s">
-        <v>52</v>
-      </c>
-      <c r="I68" t="s">
-        <v>21</v>
-      </c>
-      <c r="P68" t="s">
-        <v>52</v>
-      </c>
-      <c r="W68" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23">
-      <c r="A69" t="s">
-        <v>53</v>
-      </c>
-      <c r="I69" t="s">
-        <v>93</v>
-      </c>
-      <c r="P69" t="s">
-        <v>113</v>
-      </c>
-      <c r="W69" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
-      <c r="A70" t="s">
-        <v>54</v>
-      </c>
-      <c r="I70" t="s">
-        <v>94</v>
-      </c>
-      <c r="P70" t="s">
-        <v>86</v>
-      </c>
-      <c r="W70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23">
-      <c r="A71" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" t="s">
-        <v>12</v>
-      </c>
-      <c r="P71" t="s">
-        <v>12</v>
-      </c>
-      <c r="W71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
-      <c r="A72" t="s">
-        <v>55</v>
-      </c>
-      <c r="I72" t="s">
-        <v>34</v>
-      </c>
-      <c r="P72" t="s">
-        <v>55</v>
-      </c>
-      <c r="W72" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
-      <c r="A73" t="s">
-        <v>56</v>
-      </c>
-      <c r="I73" t="s">
-        <v>95</v>
-      </c>
-      <c r="P73" t="s">
-        <v>56</v>
-      </c>
-      <c r="W73" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
-      <c r="A74" t="s">
-        <v>57</v>
-      </c>
-      <c r="I74" t="s">
-        <v>57</v>
-      </c>
-      <c r="P74" t="s">
-        <v>57</v>
-      </c>
-      <c r="W74" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
-      <c r="A75" t="s">
-        <v>20</v>
-      </c>
-      <c r="I75" t="s">
-        <v>20</v>
-      </c>
-      <c r="P75" t="s">
-        <v>20</v>
-      </c>
-      <c r="W75" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23">
-      <c r="A76" t="s">
-        <v>52</v>
-      </c>
-      <c r="I76" t="s">
-        <v>21</v>
-      </c>
-      <c r="P76" t="s">
-        <v>52</v>
-      </c>
-      <c r="W76" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23">
-      <c r="A77" t="s">
-        <v>58</v>
-      </c>
-      <c r="I77" t="s">
-        <v>96</v>
-      </c>
-      <c r="P77" t="s">
-        <v>114</v>
-      </c>
-      <c r="W77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23">
-      <c r="A78" t="s">
-        <v>59</v>
-      </c>
-      <c r="I78" t="s">
-        <v>97</v>
-      </c>
-      <c r="P78" t="s">
-        <v>115</v>
-      </c>
-      <c r="W78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23">
-      <c r="A79" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" t="s">
-        <v>13</v>
-      </c>
-      <c r="P79" t="s">
-        <v>13</v>
-      </c>
-      <c r="W79" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23">
-      <c r="A80" t="s">
-        <v>60</v>
-      </c>
-      <c r="I80" t="s">
-        <v>98</v>
-      </c>
-      <c r="P80" t="s">
-        <v>60</v>
-      </c>
-      <c r="W80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23">
-      <c r="A81" t="s">
-        <v>61</v>
-      </c>
-      <c r="I81" t="s">
-        <v>99</v>
-      </c>
-      <c r="P81" t="s">
-        <v>61</v>
-      </c>
-      <c r="W81" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23">
-      <c r="A82" t="s">
-        <v>62</v>
-      </c>
-      <c r="I82" t="s">
-        <v>62</v>
-      </c>
-      <c r="P82" t="s">
-        <v>62</v>
-      </c>
-      <c r="W82" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23">
-      <c r="A83" t="s">
-        <v>63</v>
-      </c>
-      <c r="I83" t="s">
-        <v>20</v>
-      </c>
-      <c r="P83" t="s">
-        <v>63</v>
-      </c>
-      <c r="W83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23">
-      <c r="A84" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" t="s">
-        <v>21</v>
-      </c>
-      <c r="P84" t="s">
-        <v>21</v>
-      </c>
-      <c r="W84" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23">
-      <c r="A85" t="s">
-        <v>64</v>
-      </c>
-      <c r="I85" t="s">
-        <v>100</v>
-      </c>
-      <c r="P85" t="s">
-        <v>116</v>
-      </c>
-      <c r="W85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23">
-      <c r="A86" t="s">
-        <v>65</v>
-      </c>
-      <c r="I86" t="s">
-        <v>101</v>
-      </c>
-      <c r="P86" t="s">
-        <v>117</v>
-      </c>
-      <c r="W86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23">
-      <c r="A87" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" t="s">
-        <v>14</v>
-      </c>
-      <c r="P87" t="s">
-        <v>14</v>
-      </c>
-      <c r="W87" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23">
-      <c r="A88" t="s">
-        <v>66</v>
-      </c>
-      <c r="I88" t="s">
-        <v>102</v>
-      </c>
-      <c r="P88" t="s">
-        <v>66</v>
-      </c>
-      <c r="W88" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23">
-      <c r="A89" t="s">
-        <v>67</v>
-      </c>
-      <c r="I89" t="s">
-        <v>103</v>
-      </c>
-      <c r="P89" t="s">
-        <v>67</v>
-      </c>
-      <c r="W89" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23">
-      <c r="A90" t="s">
-        <v>68</v>
-      </c>
-      <c r="I90" t="s">
-        <v>68</v>
-      </c>
-      <c r="P90" t="s">
-        <v>68</v>
-      </c>
-      <c r="W90" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23">
-      <c r="A91" t="s">
-        <v>63</v>
-      </c>
-      <c r="I91" t="s">
-        <v>20</v>
-      </c>
-      <c r="P91" t="s">
-        <v>63</v>
-      </c>
-      <c r="W91" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23">
-      <c r="A92" t="s">
-        <v>21</v>
-      </c>
-      <c r="I92" t="s">
-        <v>52</v>
-      </c>
-      <c r="P92" t="s">
-        <v>21</v>
-      </c>
-      <c r="W92" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23">
-      <c r="A93" t="s">
-        <v>69</v>
-      </c>
-      <c r="I93" t="s">
-        <v>104</v>
-      </c>
-      <c r="P93" t="s">
-        <v>118</v>
-      </c>
-      <c r="W93" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23">
-      <c r="A94" t="s">
-        <v>70</v>
-      </c>
-      <c r="I94" t="s">
-        <v>105</v>
-      </c>
-      <c r="P94" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3262,8 +2826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3299,15 +2863,15 @@
       </c>
       <c r="C3">
         <f>C13 * 11</f>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <f>D13*12</f>
-        <v>48</v>
+        <f>(D13*11)+1</f>
+        <v>12</v>
       </c>
       <c r="E3">
-        <f>E13*12</f>
-        <v>48</v>
+        <f>(E13*11)+1</f>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3319,15 +2883,15 @@
       </c>
       <c r="C4">
         <f>C13 * 24</f>
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <f>D13*25</f>
-        <v>100</v>
+        <f>(D13*24)+1</f>
+        <v>25</v>
       </c>
       <c r="E4">
-        <f>E13*25</f>
-        <v>100</v>
+        <f>(E13*24)+1</f>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3339,15 +2903,15 @@
       </c>
       <c r="C5">
         <f>C13 * 45</f>
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="D5">
-        <f>D13*37</f>
-        <v>148</v>
+        <f>(D13*36)+1</f>
+        <v>37</v>
       </c>
       <c r="E5">
-        <f>E13*37</f>
-        <v>148</v>
+        <f>E13*36+1</f>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3359,15 +2923,15 @@
       </c>
       <c r="C6">
         <f>C13 * 52</f>
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="D6">
-        <f>D13*50</f>
-        <v>200</v>
+        <f>(D13*49)+1</f>
+        <v>50</v>
       </c>
       <c r="E6">
-        <f>E13*50</f>
-        <v>200</v>
+        <f>E13*49+1</f>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3379,15 +2943,15 @@
       </c>
       <c r="C7">
         <f>C13 * 63</f>
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="D7">
-        <f>D13*62</f>
-        <v>248</v>
+        <f>(D13*61)+1</f>
+        <v>62</v>
       </c>
       <c r="E7">
-        <f>E13*62</f>
-        <v>248</v>
+        <f>E13*61+1</f>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3399,15 +2963,15 @@
       </c>
       <c r="C8">
         <f>C13*88</f>
-        <v>264</v>
+        <v>352</v>
       </c>
       <c r="D8">
-        <f>D13*75</f>
-        <v>300</v>
+        <f>(D13*74)+1</f>
+        <v>75</v>
       </c>
       <c r="E8">
-        <f>E13*75</f>
-        <v>300</v>
+        <f>E13*74+1</f>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3419,15 +2983,15 @@
       </c>
       <c r="C9">
         <f>C13 * 87</f>
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="D9">
-        <f>D13*87</f>
-        <v>348</v>
+        <f>(D13*86)+1</f>
+        <v>87</v>
       </c>
       <c r="E9">
-        <f>E13*87</f>
-        <v>348</v>
+        <f>E13*86+1</f>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3439,15 +3003,15 @@
       </c>
       <c r="C10">
         <f>C13 * 121</f>
-        <v>363</v>
+        <v>484</v>
       </c>
       <c r="D10">
-        <f>D13*100</f>
-        <v>400</v>
+        <f>(D13*99)+1</f>
+        <v>100</v>
       </c>
       <c r="E10">
-        <f>E13*100</f>
-        <v>400</v>
+        <f>E13*99+1</f>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3459,15 +3023,15 @@
       </c>
       <c r="C11">
         <f>C13 * 113</f>
-        <v>339</v>
+        <v>452</v>
       </c>
       <c r="D11">
         <f>D13*112</f>
-        <v>448</v>
+        <v>112</v>
       </c>
       <c r="E11">
-        <f>E13*112</f>
-        <v>448</v>
+        <f>E13*112+1</f>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3479,32 +3043,1185 @@
       </c>
       <c r="C12">
         <f>C13*131</f>
-        <v>393</v>
+        <v>524</v>
       </c>
       <c r="D12">
-        <f>D13*125</f>
-        <v>500</v>
+        <f>(D13*125)+1</f>
+        <v>126</v>
       </c>
       <c r="E12">
-        <f>E13*125</f>
-        <v>500</v>
+        <f>E13*124+1</f>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" t="s">
         <v>132</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W81"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
+      <c r="P1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>106</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="W11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" t="s">
+        <v>25</v>
+      </c>
+      <c r="W12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s">
+        <v>21</v>
+      </c>
+      <c r="W15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" t="s">
+        <v>107</v>
+      </c>
+      <c r="W16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" t="s">
+        <v>23</v>
+      </c>
+      <c r="W17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="s">
+        <v>7</v>
+      </c>
+      <c r="W18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" t="s">
+        <v>30</v>
+      </c>
+      <c r="W20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" t="s">
+        <v>31</v>
+      </c>
+      <c r="W21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" t="s">
+        <v>21</v>
+      </c>
+      <c r="W23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" t="s">
+        <v>108</v>
+      </c>
+      <c r="W24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" t="s">
+        <v>28</v>
+      </c>
+      <c r="W25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" t="s">
+        <v>8</v>
+      </c>
+      <c r="W26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s">
+        <v>36</v>
+      </c>
+      <c r="P28" t="s">
+        <v>35</v>
+      </c>
+      <c r="W28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" t="s">
+        <v>36</v>
+      </c>
+      <c r="W29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" t="s">
+        <v>20</v>
+      </c>
+      <c r="W30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" t="s">
+        <v>21</v>
+      </c>
+      <c r="W31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+      <c r="P32" t="s">
+        <v>109</v>
+      </c>
+      <c r="W32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33" t="s">
+        <v>28</v>
+      </c>
+      <c r="W33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P34" t="s">
+        <v>9</v>
+      </c>
+      <c r="W34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="I35" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" t="s">
+        <v>39</v>
+      </c>
+      <c r="W35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" t="s">
+        <v>41</v>
+      </c>
+      <c r="P36" t="s">
+        <v>40</v>
+      </c>
+      <c r="W36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" t="s">
+        <v>41</v>
+      </c>
+      <c r="W37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" t="s">
+        <v>20</v>
+      </c>
+      <c r="W38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" t="s">
+        <v>42</v>
+      </c>
+      <c r="P39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40" t="s">
+        <v>43</v>
+      </c>
+      <c r="P40" t="s">
+        <v>110</v>
+      </c>
+      <c r="W40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" t="s">
+        <v>111</v>
+      </c>
+      <c r="W41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>44</v>
+      </c>
+      <c r="P42" t="s">
+        <v>10</v>
+      </c>
+      <c r="W42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="I43" t="s">
+        <v>45</v>
+      </c>
+      <c r="P43" t="s">
+        <v>44</v>
+      </c>
+      <c r="W43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44" t="s">
+        <v>46</v>
+      </c>
+      <c r="P44" t="s">
+        <v>45</v>
+      </c>
+      <c r="W44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" t="s">
+        <v>46</v>
+      </c>
+      <c r="W45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" t="s">
+        <v>20</v>
+      </c>
+      <c r="W46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" t="s">
+        <v>47</v>
+      </c>
+      <c r="P47" t="s">
+        <v>21</v>
+      </c>
+      <c r="W47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="I48" t="s">
+        <v>48</v>
+      </c>
+      <c r="P48" t="s">
+        <v>112</v>
+      </c>
+      <c r="W48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="I49" t="s">
+        <v>11</v>
+      </c>
+      <c r="P49" t="s">
+        <v>82</v>
+      </c>
+      <c r="W49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" t="s">
+        <v>49</v>
+      </c>
+      <c r="P50" t="s">
+        <v>11</v>
+      </c>
+      <c r="W50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" t="s">
+        <v>50</v>
+      </c>
+      <c r="P51" t="s">
+        <v>49</v>
+      </c>
+      <c r="W51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" t="s">
+        <v>51</v>
+      </c>
+      <c r="P52" t="s">
+        <v>50</v>
+      </c>
+      <c r="W52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" t="s">
+        <v>51</v>
+      </c>
+      <c r="W53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="s">
+        <v>20</v>
+      </c>
+      <c r="W54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s">
+        <v>52</v>
+      </c>
+      <c r="W55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="I56" t="s">
+        <v>54</v>
+      </c>
+      <c r="P56" t="s">
+        <v>113</v>
+      </c>
+      <c r="W56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="P57" t="s">
+        <v>86</v>
+      </c>
+      <c r="W57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" t="s">
+        <v>55</v>
+      </c>
+      <c r="P58" t="s">
+        <v>12</v>
+      </c>
+      <c r="W58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" t="s">
+        <v>56</v>
+      </c>
+      <c r="P59" t="s">
+        <v>55</v>
+      </c>
+      <c r="W59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+      <c r="I60" t="s">
+        <v>57</v>
+      </c>
+      <c r="P60" t="s">
+        <v>56</v>
+      </c>
+      <c r="W60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I61" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" t="s">
+        <v>57</v>
+      </c>
+      <c r="W61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="s">
+        <v>20</v>
+      </c>
+      <c r="W62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" t="s">
+        <v>58</v>
+      </c>
+      <c r="P63" t="s">
+        <v>52</v>
+      </c>
+      <c r="W63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="s">
+        <v>114</v>
+      </c>
+      <c r="W64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" t="s">
+        <v>97</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+      <c r="P65" t="s">
+        <v>115</v>
+      </c>
+      <c r="W65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="s">
+        <v>13</v>
+      </c>
+      <c r="W66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" t="s">
+        <v>98</v>
+      </c>
+      <c r="I67" t="s">
+        <v>61</v>
+      </c>
+      <c r="P67" t="s">
+        <v>60</v>
+      </c>
+      <c r="W67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68" t="s">
+        <v>99</v>
+      </c>
+      <c r="I68" t="s">
+        <v>62</v>
+      </c>
+      <c r="P68" t="s">
+        <v>61</v>
+      </c>
+      <c r="W68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="s">
+        <v>62</v>
+      </c>
+      <c r="W69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
+      <c r="P70" t="s">
+        <v>63</v>
+      </c>
+      <c r="W70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" t="s">
+        <v>64</v>
+      </c>
+      <c r="P71" t="s">
+        <v>21</v>
+      </c>
+      <c r="W71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" t="s">
+        <v>100</v>
+      </c>
+      <c r="I72" t="s">
+        <v>65</v>
+      </c>
+      <c r="P72" t="s">
+        <v>116</v>
+      </c>
+      <c r="W72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73" t="s">
+        <v>101</v>
+      </c>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+      <c r="P73" t="s">
+        <v>117</v>
+      </c>
+      <c r="W73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>66</v>
+      </c>
+      <c r="P74" t="s">
+        <v>14</v>
+      </c>
+      <c r="W74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" t="s">
+        <v>102</v>
+      </c>
+      <c r="P75" t="s">
+        <v>66</v>
+      </c>
+      <c r="W75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" t="s">
+        <v>103</v>
+      </c>
+      <c r="I76" t="s">
+        <v>67</v>
+      </c>
+      <c r="P76" t="s">
+        <v>67</v>
+      </c>
+      <c r="W76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" t="s">
+        <v>68</v>
+      </c>
+      <c r="I77" t="s">
+        <v>68</v>
+      </c>
+      <c r="P77" t="s">
+        <v>68</v>
+      </c>
+      <c r="W77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" t="s">
+        <v>63</v>
+      </c>
+      <c r="W78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" t="s">
+        <v>52</v>
+      </c>
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="P79" t="s">
+        <v>21</v>
+      </c>
+      <c r="W79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" t="s">
+        <v>104</v>
+      </c>
+      <c r="I80" t="s">
+        <v>69</v>
+      </c>
+      <c r="P80" t="s">
+        <v>118</v>
+      </c>
+      <c r="W80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81" t="s">
+        <v>105</v>
+      </c>
+      <c r="I81" t="s">
+        <v>70</v>
+      </c>
+      <c r="P81" t="s">
+        <v>119</v>
+      </c>
+      <c r="W81" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
